--- a/assets/findings/2024-03-09-findings.xlsx
+++ b/assets/findings/2024-03-09-findings.xlsx
@@ -624,8 +624,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -657,8 +659,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -723,8 +727,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -756,8 +762,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -822,8 +830,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -855,8 +865,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -921,8 +933,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -954,8 +968,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1020,8 +1036,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -1053,8 +1071,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1119,8 +1139,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -1152,8 +1174,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1387,8 +1411,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -1420,8 +1446,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1486,8 +1514,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1519,8 +1549,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1585,8 +1617,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1618,8 +1652,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1684,8 +1720,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1717,8 +1755,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1783,8 +1823,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1816,8 +1858,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1882,8 +1926,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1915,8 +1961,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1981,8 +2029,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -2014,8 +2064,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -2080,8 +2132,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -2113,8 +2167,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -2352,8 +2408,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -2385,8 +2443,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2451,8 +2511,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -2484,8 +2546,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2550,8 +2614,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -2583,8 +2649,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2649,8 +2717,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -2682,8 +2752,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -2748,8 +2820,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -2781,8 +2855,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -2847,8 +2923,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -2880,8 +2958,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3115,8 +3195,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3148,8 +3230,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3214,8 +3298,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3247,8 +3333,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -3313,8 +3401,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -3346,8 +3436,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -3412,8 +3504,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -3445,8 +3539,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3511,8 +3607,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3544,8 +3642,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3610,8 +3710,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -3643,8 +3745,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3709,8 +3813,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3742,8 +3848,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -3808,8 +3916,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -3841,8 +3951,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
